--- a/va_facility_data_2025-02-20/West Roxbury VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''West%20Roxbury%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/West Roxbury VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''West%20Roxbury%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5f2cfac45e114b468df8f43cb10292e4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7bca4a10bf3e49848e115b204bdae081"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Raa6f373e1e794bcba1569263d08c427e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf558ea8cde4146fa818d20d48f60d05f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf110d5fc89044de1876552c4833e4f6c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4ac91bddc51345c59ba5b9700528cb6f"/>
   </x:sheets>
 </x:workbook>
 </file>
